--- a/CleanData/Tempest/Serotypes/correlation_coefficients_old_data.xlsx
+++ b/CleanData/Tempest/Serotypes/correlation_coefficients_old_data.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="correlation_coefficients_old_da" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">correlation_coefficients_old_da!$A$1:$J$29</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="205">
   <si>
     <t>serotype</t>
   </si>
@@ -52,136 +55,115 @@
     <t>A_1-511(Lpro)</t>
   </si>
   <si>
-    <t>0.698507181976763</t>
-  </si>
-  <si>
-    <t>1.3116022498443653e-43</t>
-  </si>
-  <si>
-    <t>0.5946979501412016</t>
-  </si>
-  <si>
-    <t>4.9685908701421145e-29</t>
-  </si>
-  <si>
-    <t>0.003081136828004172</t>
-  </si>
-  <si>
-    <t>-5.862427778550924</t>
-  </si>
-  <si>
-    <t>0.48791228327311836</t>
-  </si>
-  <si>
-    <t>1.3116022498445112e-43</t>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>1.31e-43</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>4.97e-29</t>
+  </si>
+  <si>
+    <t>3.08e-03</t>
+  </si>
+  <si>
+    <t>-5.86</t>
+  </si>
+  <si>
+    <t>0.49</t>
   </si>
   <si>
     <t>A_3295-4131(P2)</t>
   </si>
   <si>
-    <t>0.5542625715062827</t>
-  </si>
-  <si>
-    <t>1.1276664816379688e-24</t>
-  </si>
-  <si>
-    <t>0.6433972392760515</t>
-  </si>
-  <si>
-    <t>3.627441312672757e-35</t>
-  </si>
-  <si>
-    <t>0.0019826564168455695</t>
-  </si>
-  <si>
-    <t>-3.769990893864766</t>
-  </si>
-  <si>
-    <t>0.3072069981727575</t>
-  </si>
-  <si>
-    <t>1.1276664816379487e-24</t>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>1.13e-24</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>3.63e-35</t>
+  </si>
+  <si>
+    <t>1.98e-03</t>
+  </si>
+  <si>
+    <t>-3.77</t>
+  </si>
+  <si>
+    <t>0.31</t>
   </si>
   <si>
     <t>A_4331-6167(3A-C)</t>
   </si>
   <si>
-    <t>0.45488095573579923</t>
-  </si>
-  <si>
-    <t>3.6424300152107256e-16</t>
-  </si>
-  <si>
-    <t>0.4924887558885088</t>
-  </si>
-  <si>
-    <t>4.606199870671845e-19</t>
-  </si>
-  <si>
-    <t>0.0017871302124405656</t>
-  </si>
-  <si>
-    <t>-3.377376948814909</t>
-  </si>
-  <si>
-    <t>0.20691668389111414</t>
-  </si>
-  <si>
-    <t>3.6424300152106166e-16</t>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>3.64e-16</t>
+  </si>
+  <si>
+    <t>4.61e-19</t>
+  </si>
+  <si>
+    <t>1.79e-03</t>
+  </si>
+  <si>
+    <t>-3.38</t>
+  </si>
+  <si>
+    <t>0.21</t>
   </si>
   <si>
     <t>A_6333-7002(3D)</t>
   </si>
   <si>
-    <t>0.3554985634920601</t>
-  </si>
-  <si>
-    <t>4.918048731888705e-10</t>
-  </si>
-  <si>
-    <t>0.4458889890813054</t>
-  </si>
-  <si>
-    <t>1.5960192186688434e-15</t>
-  </si>
-  <si>
-    <t>0.00048346780468115164</t>
-  </si>
-  <si>
-    <t>-0.7729830963966714</t>
-  </si>
-  <si>
-    <t>0.12637922864491843</t>
-  </si>
-  <si>
-    <t>4.918048731888452e-10</t>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>4.92e-10</t>
+  </si>
+  <si>
+    <t>1.60e-15</t>
+  </si>
+  <si>
+    <t>4.83e-04</t>
+  </si>
+  <si>
+    <t>-0.77</t>
+  </si>
+  <si>
+    <t>0.13</t>
   </si>
   <si>
     <t>A_803-2745(P1)</t>
   </si>
   <si>
-    <t>0.8614419592186002</t>
-  </si>
-  <si>
-    <t>1.925001069378373e-86</t>
-  </si>
-  <si>
-    <t>0.8762234677143799</t>
-  </si>
-  <si>
-    <t>5.488897732040577e-93</t>
-  </si>
-  <si>
-    <t>0.0028837220928271184</t>
-  </si>
-  <si>
-    <t>-5.520368326242408</t>
-  </si>
-  <si>
-    <t>0.7420822491023809</t>
-  </si>
-  <si>
-    <t>1.9250010693780173e-86</t>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>1.93e-86</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>5.49e-93</t>
+  </si>
+  <si>
+    <t>2.88e-03</t>
+  </si>
+  <si>
+    <t>-5.52</t>
+  </si>
+  <si>
+    <t>0.74</t>
   </si>
   <si>
     <t>Asia1</t>
@@ -190,109 +172,85 @@
     <t>Asia1_1-581(Lpro)</t>
   </si>
   <si>
-    <t>0.34000247051993543</t>
-  </si>
-  <si>
-    <t>0.0001273192067497213</t>
-  </si>
-  <si>
-    <t>0.35142452592724577</t>
-  </si>
-  <si>
-    <t>7.217064914550961e-05</t>
-  </si>
-  <si>
-    <t>0.0010530617773008744</t>
-  </si>
-  <si>
-    <t>-1.9044681077376955</t>
-  </si>
-  <si>
-    <t>0.1156016799596591</t>
-  </si>
-  <si>
-    <t>0.00012731920674972555</t>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>1.27e-04</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>7.22e-05</t>
+  </si>
+  <si>
+    <t>1.05e-03</t>
+  </si>
+  <si>
+    <t>-1.90</t>
+  </si>
+  <si>
+    <t>0.12</t>
   </si>
   <si>
     <t>Asia1_2993-3525(P2)</t>
   </si>
   <si>
-    <t>-0.12907668912271913</t>
-  </si>
-  <si>
-    <t>0.15649561582161936</t>
-  </si>
-  <si>
-    <t>-0.04966169643644</t>
-  </si>
-  <si>
-    <t>0.5869784334498673</t>
-  </si>
-  <si>
-    <t>-0.0001395010517642269</t>
-  </si>
-  <si>
-    <t>0.35196265184504916</t>
-  </si>
-  <si>
-    <t>0.016660791674883095</t>
-  </si>
-  <si>
-    <t>0.15649561582161892</t>
+    <t>-0.13</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>-4.97e-02</t>
+  </si>
+  <si>
+    <t>-1.40e-04</t>
+  </si>
+  <si>
+    <t>1.67e-02</t>
   </si>
   <si>
     <t>Asia1_3555-6990(P3)</t>
   </si>
   <si>
-    <t>0.5137977561462128</t>
-  </si>
-  <si>
-    <t>1.4266584153421353e-09</t>
-  </si>
-  <si>
-    <t>0.4864511867701874</t>
-  </si>
-  <si>
-    <t>1.3413102447952734e-08</t>
-  </si>
-  <si>
-    <t>0.0005552546709873344</t>
-  </si>
-  <si>
-    <t>-1.0234017986277166</t>
-  </si>
-  <si>
-    <t>0.2639881342208831</t>
-  </si>
-  <si>
-    <t>1.4266584153421407e-09</t>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>1.43e-09</t>
+  </si>
+  <si>
+    <t>1.34e-08</t>
+  </si>
+  <si>
+    <t>5.55e-04</t>
+  </si>
+  <si>
+    <t>-1.02</t>
+  </si>
+  <si>
+    <t>0.26</t>
   </si>
   <si>
     <t>Asia1_761-2767(P1)</t>
   </si>
   <si>
-    <t>0.6953477202279131</t>
-  </si>
-  <si>
-    <t>6.299579482890148e-19</t>
-  </si>
-  <si>
-    <t>0.801372730460981</t>
-  </si>
-  <si>
-    <t>1.4934679158884326e-28</t>
-  </si>
-  <si>
-    <t>0.001600303753683315</t>
-  </si>
-  <si>
-    <t>-3.048485292347449</t>
-  </si>
-  <si>
-    <t>0.483508452026156</t>
-  </si>
-  <si>
-    <t>6.299579482890268e-19</t>
+    <t>6.30e-19</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>1.49e-28</t>
+  </si>
+  <si>
+    <t>1.60e-03</t>
+  </si>
+  <si>
+    <t>-3.05</t>
+  </si>
+  <si>
+    <t>0.48</t>
   </si>
   <si>
     <t>O</t>
@@ -301,109 +259,91 @@
     <t>O_1-623(Lpro)</t>
   </si>
   <si>
-    <t>0.5448260293141893</t>
-  </si>
-  <si>
-    <t>3.431839075685509e-63</t>
-  </si>
-  <si>
-    <t>0.5731446528270641</t>
-  </si>
-  <si>
-    <t>3.2407753864961454e-71</t>
-  </si>
-  <si>
-    <t>0.0033904257247440645</t>
-  </si>
-  <si>
-    <t>-6.441191649039234</t>
-  </si>
-  <si>
-    <t>0.29683540221826576</t>
-  </si>
-  <si>
-    <t>3.43183907568568e-63</t>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>3.43e-63</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>3.24e-71</t>
+  </si>
+  <si>
+    <t>3.39e-03</t>
+  </si>
+  <si>
+    <t>-6.44</t>
+  </si>
+  <si>
+    <t>0.30</t>
   </si>
   <si>
     <t>O_3109-4869(P2,3A-B)</t>
   </si>
   <si>
-    <t>0.39890600061043113</t>
-  </si>
-  <si>
-    <t>5.482050390789194e-32</t>
-  </si>
-  <si>
-    <t>0.510670707107649</t>
-  </si>
-  <si>
-    <t>1.7742135459401867e-54</t>
-  </si>
-  <si>
-    <t>0.0026867227842133886</t>
-  </si>
-  <si>
-    <t>-5.227453308481606</t>
-  </si>
-  <si>
-    <t>0.15912599732300936</t>
-  </si>
-  <si>
-    <t>5.48205039078881e-32</t>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>5.48e-32</t>
+  </si>
+  <si>
+    <t>1.77e-54</t>
+  </si>
+  <si>
+    <t>2.69e-03</t>
+  </si>
+  <si>
+    <t>-5.23</t>
   </si>
   <si>
     <t>O_4913-6999(3C-D)</t>
   </si>
   <si>
-    <t>0.42447220552004983</t>
-  </si>
-  <si>
-    <t>2.032791391427911e-36</t>
-  </si>
-  <si>
-    <t>0.6288101602371458</t>
-  </si>
-  <si>
-    <t>1.7279677802040968e-89</t>
-  </si>
-  <si>
-    <t>0.002449045324262757</t>
-  </si>
-  <si>
-    <t>-4.768863617012082</t>
-  </si>
-  <si>
-    <t>0.18017665325905532</t>
-  </si>
-  <si>
-    <t>2.0327913914280526e-36</t>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>2.03e-36</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>1.73e-89</t>
+  </si>
+  <si>
+    <t>2.45e-03</t>
+  </si>
+  <si>
+    <t>-4.77</t>
+  </si>
+  <si>
+    <t>0.18</t>
   </si>
   <si>
     <t>O_637-2783(P1)</t>
   </si>
   <si>
-    <t>0.6578714789311647</t>
-  </si>
-  <si>
-    <t>1.3411198632989765e-100</t>
-  </si>
-  <si>
-    <t>0.8300223252375468</t>
-  </si>
-  <si>
-    <t>4.679873997716311e-205</t>
-  </si>
-  <si>
-    <t>0.0040493425185241455</t>
-  </si>
-  <si>
-    <t>-7.801497264140182</t>
-  </si>
-  <si>
-    <t>0.4327948827910779</t>
-  </si>
-  <si>
-    <t>1.341119863298652e-100</t>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>1.34e-100</t>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>4.68e-205</t>
+  </si>
+  <si>
+    <t>4.05e-03</t>
+  </si>
+  <si>
+    <t>-7.80</t>
+  </si>
+  <si>
+    <t>0.43</t>
   </si>
   <si>
     <t>C</t>
@@ -412,109 +352,67 @@
     <t>C_1-574(Lpro)</t>
   </si>
   <si>
-    <t>0.2690063616803879</t>
-  </si>
-  <si>
-    <t>0.2964563601743759</t>
-  </si>
-  <si>
-    <t>0.3374309180683959</t>
-  </si>
-  <si>
-    <t>0.18532390414205385</t>
-  </si>
-  <si>
-    <t>0.0018388800798807459</t>
-  </si>
-  <si>
-    <t>-3.438912335253751</t>
-  </si>
-  <si>
-    <t>0.07236442262451966</t>
-  </si>
-  <si>
-    <t>0.29645636017437565</t>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>1.84e-03</t>
+  </si>
+  <si>
+    <t>-3.44</t>
+  </si>
+  <si>
+    <t>7.24e-02</t>
   </si>
   <si>
     <t>C_2948-4275(P2)</t>
   </si>
   <si>
-    <t>0.34913144082805986</t>
-  </si>
-  <si>
-    <t>0.1695831065135784</t>
-  </si>
-  <si>
-    <t>0.532923177831617</t>
-  </si>
-  <si>
-    <t>0.0276183202312877</t>
-  </si>
-  <si>
-    <t>0.0008091107319420492</t>
-  </si>
-  <si>
-    <t>-1.5210101762271293</t>
-  </si>
-  <si>
-    <t>0.12189276297467706</t>
-  </si>
-  <si>
-    <t>0.1695831065135783</t>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>2.76e-02</t>
+  </si>
+  <si>
+    <t>8.09e-04</t>
+  </si>
+  <si>
+    <t>-1.52</t>
   </si>
   <si>
     <t>C_4276-6990(P3)</t>
   </si>
   <si>
-    <t>0.3970339693589417</t>
-  </si>
-  <si>
-    <t>0.11456654228950598</t>
-  </si>
-  <si>
-    <t>0.5322680784102567</t>
-  </si>
-  <si>
-    <t>0.02784600960569956</t>
-  </si>
-  <si>
-    <t>0.0010451684012362805</t>
-  </si>
-  <si>
-    <t>-1.972445558201859</t>
-  </si>
-  <si>
-    <t>0.15763597282491693</t>
-  </si>
-  <si>
-    <t>0.11456654228950619</t>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>2.78e-02</t>
+  </si>
+  <si>
+    <t>-1.97</t>
   </si>
   <si>
     <t>C_976-2742(P1)</t>
   </si>
   <si>
-    <t>0.31742527673671717</t>
-  </si>
-  <si>
-    <t>0.21441849850195327</t>
-  </si>
-  <si>
-    <t>0.4219904904275378</t>
-  </si>
-  <si>
-    <t>0.09155375513828563</t>
-  </si>
-  <si>
-    <t>0.0013480167487762195</t>
-  </si>
-  <si>
-    <t>-2.529785748452254</t>
-  </si>
-  <si>
-    <t>0.10075880631138144</t>
-  </si>
-  <si>
-    <t>0.2144184985019534</t>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>9.16e-02</t>
+  </si>
+  <si>
+    <t>1.35e-03</t>
+  </si>
+  <si>
+    <t>-2.53</t>
+  </si>
+  <si>
+    <t>0.10</t>
   </si>
   <si>
     <t>SAT1</t>
@@ -523,82 +421,58 @@
     <t>SAT1_1-871(Lpro)</t>
   </si>
   <si>
-    <t>0.21624878907526698</t>
-  </si>
-  <si>
-    <t>0.03951403444303161</t>
-  </si>
-  <si>
-    <t>-0.25319633518082074</t>
-  </si>
-  <si>
-    <t>0.015454536018474609</t>
-  </si>
-  <si>
-    <t>0.0036768846686799886</t>
-  </si>
-  <si>
-    <t>-6.0740842583612125</t>
-  </si>
-  <si>
-    <t>0.04676353877651955</t>
-  </si>
-  <si>
-    <t>0.039514034443031115</t>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>3.95e-02</t>
+  </si>
+  <si>
+    <t>-0.25</t>
+  </si>
+  <si>
+    <t>1.55e-02</t>
+  </si>
+  <si>
+    <t>3.68e-03</t>
+  </si>
+  <si>
+    <t>-6.07</t>
+  </si>
+  <si>
+    <t>4.68e-02</t>
   </si>
   <si>
     <t>SAT1_2881-7020(P2-P3)</t>
   </si>
   <si>
-    <t>0.30118665954751733</t>
-  </si>
-  <si>
-    <t>0.003718485125004811</t>
-  </si>
-  <si>
-    <t>0.3524799571328459</t>
-  </si>
-  <si>
-    <t>0.0006111097847142021</t>
-  </si>
-  <si>
-    <t>0.0021547552343960975</t>
-  </si>
-  <si>
-    <t>-3.6870166264475395</t>
-  </si>
-  <si>
-    <t>0.09071340388939225</t>
-  </si>
-  <si>
-    <t>0.003718485125004784</t>
+    <t>3.72e-03</t>
+  </si>
+  <si>
+    <t>6.11e-04</t>
+  </si>
+  <si>
+    <t>2.15e-03</t>
+  </si>
+  <si>
+    <t>-3.69</t>
+  </si>
+  <si>
+    <t>9.07e-02</t>
   </si>
   <si>
     <t>SAT1_901-2727(P1)</t>
   </si>
   <si>
-    <t>0.5895345612486185</t>
-  </si>
-  <si>
-    <t>7.839541119264607e-10</t>
-  </si>
-  <si>
-    <t>0.4535410026000709</t>
-  </si>
-  <si>
-    <t>6.337402470398584e-06</t>
-  </si>
-  <si>
-    <t>0.002114771419475045</t>
-  </si>
-  <si>
-    <t>-3.743923965976751</t>
-  </si>
-  <si>
-    <t>0.3475509989066024</t>
-  </si>
-  <si>
-    <t>7.839541119263967e-10</t>
+    <t>7.84e-10</t>
+  </si>
+  <si>
+    <t>6.34e-06</t>
+  </si>
+  <si>
+    <t>2.11e-03</t>
+  </si>
+  <si>
+    <t>-3.74</t>
   </si>
   <si>
     <t>SAT2</t>
@@ -607,109 +481,85 @@
     <t>SAT2_1-539(Lpro)</t>
   </si>
   <si>
-    <t>0.040952756383290684</t>
-  </si>
-  <si>
-    <t>0.6284581511444475</t>
-  </si>
-  <si>
-    <t>0.37602408739856585</t>
-  </si>
-  <si>
-    <t>3.995052683628263e-06</t>
-  </si>
-  <si>
-    <t>0.002570664937287919</t>
-  </si>
-  <si>
-    <t>-4.446875718544861</t>
-  </si>
-  <si>
-    <t>0.001677128255389156</t>
-  </si>
-  <si>
-    <t>0.6284581511444458</t>
+    <t>4.10e-02</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>4.00e-06</t>
+  </si>
+  <si>
+    <t>2.57e-03</t>
+  </si>
+  <si>
+    <t>-4.45</t>
+  </si>
+  <si>
+    <t>1.68e-03</t>
   </si>
   <si>
     <t>SAT2_2843-4153(P2)</t>
   </si>
   <si>
-    <t>0.20086914302368086</t>
-  </si>
-  <si>
-    <t>0.016531761553349594</t>
-  </si>
-  <si>
-    <t>0.1876057638737903</t>
-  </si>
-  <si>
-    <t>0.02537072896921275</t>
-  </si>
-  <si>
-    <t>0.0004571320091332941</t>
-  </si>
-  <si>
-    <t>-0.6128159500347548</t>
-  </si>
-  <si>
-    <t>0.040348412619067915</t>
-  </si>
-  <si>
-    <t>0.016531761553349712</t>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>1.65e-02</t>
+  </si>
+  <si>
+    <t>2.54e-02</t>
+  </si>
+  <si>
+    <t>4.57e-04</t>
+  </si>
+  <si>
+    <t>-0.61</t>
+  </si>
+  <si>
+    <t>4.03e-02</t>
   </si>
   <si>
     <t>SAT2_4283-7008(P3)</t>
   </si>
   <si>
-    <t>0.4866475075875812</t>
-  </si>
-  <si>
-    <t>8.225947234626453e-10</t>
-  </si>
-  <si>
-    <t>0.36902960679874736</t>
-  </si>
-  <si>
-    <t>6.207888289032636e-06</t>
-  </si>
-  <si>
-    <t>0.0007272694093641574</t>
-  </si>
-  <si>
-    <t>-1.1376131905311087</t>
-  </si>
-  <si>
-    <t>0.2368257966412049</t>
-  </si>
-  <si>
-    <t>8.225947234626483e-10</t>
+    <t>8.23e-10</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>6.21e-06</t>
+  </si>
+  <si>
+    <t>7.27e-04</t>
+  </si>
+  <si>
+    <t>-1.14</t>
+  </si>
+  <si>
+    <t>0.24</t>
   </si>
   <si>
     <t>SAT2_721-2661(P1)</t>
   </si>
   <si>
-    <t>0.2190703890116536</t>
-  </si>
-  <si>
-    <t>0.008809784770929219</t>
-  </si>
-  <si>
-    <t>-0.3430443824878245</t>
-  </si>
-  <si>
-    <t>2.9246989129241974e-05</t>
-  </si>
-  <si>
-    <t>0.0022011658630530866</t>
-  </si>
-  <si>
-    <t>-3.591428166313633</t>
-  </si>
-  <si>
-    <t>0.04799183534171729</t>
-  </si>
-  <si>
-    <t>0.008809784770929223</t>
+    <t>8.81e-03</t>
+  </si>
+  <si>
+    <t>-0.34</t>
+  </si>
+  <si>
+    <t>2.92e-05</t>
+  </si>
+  <si>
+    <t>2.20e-03</t>
+  </si>
+  <si>
+    <t>-3.59</t>
+  </si>
+  <si>
+    <t>4.80e-02</t>
   </si>
   <si>
     <t>SAT3</t>
@@ -718,109 +568,70 @@
     <t>SAT3_1-574(Lpro)</t>
   </si>
   <si>
-    <t>0.4042183628412574</t>
-  </si>
-  <si>
-    <t>0.062067085693554236</t>
-  </si>
-  <si>
-    <t>0.36990973894234436</t>
-  </si>
-  <si>
-    <t>0.09017673056922663</t>
-  </si>
-  <si>
-    <t>0.042207986139298576</t>
-  </si>
-  <si>
-    <t>-82.91259976696814</t>
-  </si>
-  <si>
-    <t>0.16339248485806646</t>
-  </si>
-  <si>
-    <t>0.062067085693554264</t>
+    <t>6.21e-02</t>
+  </si>
+  <si>
+    <t>9.02e-02</t>
+  </si>
+  <si>
+    <t>4.22e-02</t>
+  </si>
+  <si>
+    <t>-82.91</t>
   </si>
   <si>
     <t>SAT3_2948-4275(P2)</t>
   </si>
   <si>
-    <t>0.4627527627486305</t>
-  </si>
-  <si>
-    <t>0.030109956480119115</t>
-  </si>
-  <si>
-    <t>0.01583711420548263</t>
-  </si>
-  <si>
-    <t>0.9442329111376018</t>
-  </si>
-  <si>
-    <t>0.002458991976086816</t>
-  </si>
-  <si>
-    <t>-4.752943244222549</t>
-  </si>
-  <si>
-    <t>0.2141401194314902</t>
-  </si>
-  <si>
-    <t>0.030109956480119146</t>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>3.01e-02</t>
+  </si>
+  <si>
+    <t>1.58e-02</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>2.46e-03</t>
+  </si>
+  <si>
+    <t>-4.75</t>
   </si>
   <si>
     <t>SAT3_4276-7008(P3)</t>
   </si>
   <si>
-    <t>0.44883514048812956</t>
-  </si>
-  <si>
-    <t>0.03614412640600258</t>
-  </si>
-  <si>
-    <t>-0.07124689052629675</t>
-  </si>
-  <si>
-    <t>0.7527073526717839</t>
-  </si>
-  <si>
-    <t>0.0020749429290635633</t>
-  </si>
-  <si>
-    <t>-4.000226605729846</t>
-  </si>
-  <si>
-    <t>0.20145298333699904</t>
-  </si>
-  <si>
-    <t>0.03614412640600243</t>
+    <t>3.61e-02</t>
+  </si>
+  <si>
+    <t>-7.12e-02</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>2.07e-03</t>
+  </si>
+  <si>
+    <t>-4.00</t>
   </si>
   <si>
     <t>SAT3_976-2742(P1)</t>
   </si>
   <si>
-    <t>0.5911842809366882</t>
-  </si>
-  <si>
-    <t>0.0037611690077857763</t>
-  </si>
-  <si>
-    <t>0.3703707404343204</t>
-  </si>
-  <si>
-    <t>0.08974539919202089</t>
-  </si>
-  <si>
-    <t>0.006975809646783729</t>
-  </si>
-  <si>
-    <t>-13.324707490900472</t>
-  </si>
-  <si>
-    <t>0.34949885402662906</t>
-  </si>
-  <si>
-    <t>0.00376116900778578</t>
+    <t>3.76e-03</t>
+  </si>
+  <si>
+    <t>8.97e-02</t>
+  </si>
+  <si>
+    <t>6.98e-03</t>
+  </si>
+  <si>
+    <t>-13.32</t>
   </si>
 </sst>
 </file>
@@ -1667,24 +1478,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1719,7 +1529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1748,103 +1558,103 @@
         <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
       <c r="J3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>33</v>
       </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
-      </c>
       <c r="J4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
+      <c r="H5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" t="s">
+      <c r="I5" t="s">
         <v>40</v>
       </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>45</v>
-      </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1852,770 +1662,784 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="s">
+      <c r="I6" t="s">
         <v>48</v>
       </c>
-      <c r="D6" t="s">
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>49</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B7" t="s">
         <v>50</v>
       </c>
-      <c r="F6" t="s">
+      <c r="C7" t="s">
         <v>51</v>
       </c>
-      <c r="G6" t="s">
+      <c r="D7" t="s">
         <v>52</v>
       </c>
-      <c r="H6" t="s">
+      <c r="E7" t="s">
         <v>53</v>
       </c>
-      <c r="I6" t="s">
+      <c r="F7" t="s">
         <v>54</v>
       </c>
-      <c r="J6" t="s">
+      <c r="G7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="H7" t="s">
         <v>56</v>
       </c>
-      <c r="B7" t="s">
+      <c r="I7" t="s">
         <v>57</v>
       </c>
-      <c r="C7" t="s">
+      <c r="J7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
         <v>58</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
         <v>59</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D8" t="s">
         <v>60</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E8" t="s">
         <v>61</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
         <v>62</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" t="s">
         <v>63</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
         <v>64</v>
       </c>
-      <c r="J7" t="s">
+      <c r="C9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D9" t="s">
         <v>66</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
         <v>67</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G9" t="s">
         <v>68</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H9" t="s">
         <v>69</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I9" t="s">
         <v>70</v>
       </c>
-      <c r="G8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" t="s">
-        <v>82</v>
-      </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" t="s">
         <v>84</v>
       </c>
-      <c r="C10" t="s">
+      <c r="H11" t="s">
         <v>85</v>
       </c>
-      <c r="D10" t="s">
+      <c r="I11" t="s">
         <v>86</v>
       </c>
-      <c r="E10" t="s">
+      <c r="J11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
         <v>87</v>
       </c>
-      <c r="F10" t="s">
+      <c r="C12" t="s">
         <v>88</v>
       </c>
-      <c r="G10" t="s">
+      <c r="D12" t="s">
         <v>89</v>
       </c>
-      <c r="H10" t="s">
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
         <v>90</v>
       </c>
-      <c r="I10" t="s">
+      <c r="G12" t="s">
         <v>91</v>
       </c>
-      <c r="J10" t="s">
+      <c r="H12" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="I12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
         <v>93</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C13" t="s">
         <v>94</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D13" t="s">
         <v>95</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E13" t="s">
         <v>96</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F13" t="s">
         <v>97</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G13" t="s">
         <v>98</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H13" t="s">
         <v>99</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I13" t="s">
         <v>100</v>
       </c>
-      <c r="I11" t="s">
-        <v>101</v>
-      </c>
-      <c r="J11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H12" t="s">
-        <v>109</v>
-      </c>
-      <c r="I12" t="s">
-        <v>110</v>
-      </c>
-      <c r="J12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G13" t="s">
-        <v>117</v>
-      </c>
-      <c r="H13" t="s">
-        <v>118</v>
-      </c>
-      <c r="I13" t="s">
-        <v>119</v>
-      </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" t="s">
+        <v>108</v>
+      </c>
+      <c r="J14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" t="s">
+        <v>115</v>
+      </c>
+      <c r="J15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" t="s">
         <v>121</v>
       </c>
-      <c r="C14" t="s">
+      <c r="I16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" t="s">
         <v>122</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" t="s">
         <v>123</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" t="s">
         <v>124</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" t="s">
         <v>125</v>
       </c>
-      <c r="G14" t="s">
-        <v>126</v>
-      </c>
-      <c r="H14" t="s">
-        <v>127</v>
-      </c>
-      <c r="I14" t="s">
-        <v>128</v>
-      </c>
-      <c r="J14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" t="s">
-        <v>134</v>
-      </c>
-      <c r="F15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G15" t="s">
-        <v>136</v>
-      </c>
-      <c r="H15" t="s">
-        <v>137</v>
-      </c>
-      <c r="I15" t="s">
-        <v>138</v>
-      </c>
-      <c r="J15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" t="s">
-        <v>142</v>
-      </c>
-      <c r="E16" t="s">
-        <v>143</v>
-      </c>
-      <c r="F16" t="s">
-        <v>144</v>
-      </c>
-      <c r="G16" t="s">
-        <v>145</v>
-      </c>
-      <c r="H16" t="s">
-        <v>146</v>
-      </c>
-      <c r="I16" t="s">
-        <v>147</v>
-      </c>
-      <c r="J16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" t="s">
-        <v>151</v>
-      </c>
-      <c r="E17" t="s">
-        <v>152</v>
-      </c>
-      <c r="F17" t="s">
-        <v>153</v>
-      </c>
-      <c r="G17" t="s">
-        <v>154</v>
-      </c>
-      <c r="H17" t="s">
-        <v>155</v>
-      </c>
       <c r="I17" t="s">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="J17" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" t="s">
+        <v>129</v>
+      </c>
+      <c r="H18" t="s">
         <v>130</v>
       </c>
-      <c r="B18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C18" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" t="s">
-        <v>160</v>
-      </c>
-      <c r="E18" t="s">
-        <v>161</v>
-      </c>
-      <c r="F18" t="s">
-        <v>162</v>
-      </c>
-      <c r="G18" t="s">
-        <v>163</v>
-      </c>
-      <c r="H18" t="s">
-        <v>164</v>
-      </c>
       <c r="I18" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="J18" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="B19" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="C19" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="D19" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="E19" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="F19" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="G19" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="H19" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="I19" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="J19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="B20" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="C20" t="s">
-        <v>178</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="E20" t="s">
-        <v>180</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="G20" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="H20" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="I20" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="J20" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" t="s">
+        <v>150</v>
+      </c>
+      <c r="H21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I21" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" t="s">
+        <v>157</v>
+      </c>
+      <c r="H22" t="s">
+        <v>158</v>
+      </c>
+      <c r="I22" t="s">
+        <v>159</v>
+      </c>
+      <c r="J22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" t="s">
+        <v>163</v>
+      </c>
+      <c r="G23" t="s">
+        <v>164</v>
+      </c>
+      <c r="H23" t="s">
+        <v>165</v>
+      </c>
+      <c r="I23" t="s">
+        <v>166</v>
+      </c>
+      <c r="J23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" t="s">
         <v>167</v>
       </c>
-      <c r="B21" t="s">
-        <v>186</v>
-      </c>
-      <c r="C21" t="s">
-        <v>187</v>
-      </c>
-      <c r="D21" t="s">
-        <v>188</v>
-      </c>
-      <c r="E21" t="s">
-        <v>189</v>
-      </c>
-      <c r="F21" t="s">
-        <v>190</v>
-      </c>
-      <c r="G21" t="s">
-        <v>191</v>
-      </c>
-      <c r="H21" t="s">
-        <v>192</v>
-      </c>
-      <c r="I21" t="s">
-        <v>193</v>
-      </c>
-      <c r="J21" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>195</v>
-      </c>
-      <c r="B22" t="s">
-        <v>196</v>
-      </c>
-      <c r="C22" t="s">
-        <v>197</v>
-      </c>
-      <c r="D22" t="s">
-        <v>198</v>
-      </c>
-      <c r="E22" t="s">
-        <v>199</v>
-      </c>
-      <c r="F22" t="s">
-        <v>200</v>
-      </c>
-      <c r="G22" t="s">
-        <v>201</v>
-      </c>
-      <c r="H22" t="s">
-        <v>202</v>
-      </c>
-      <c r="I22" t="s">
-        <v>203</v>
-      </c>
-      <c r="J22" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>195</v>
-      </c>
-      <c r="B23" t="s">
-        <v>205</v>
-      </c>
-      <c r="C23" t="s">
-        <v>206</v>
-      </c>
-      <c r="D23" t="s">
-        <v>207</v>
-      </c>
-      <c r="E23" t="s">
-        <v>208</v>
-      </c>
-      <c r="F23" t="s">
-        <v>209</v>
-      </c>
-      <c r="G23" t="s">
-        <v>210</v>
-      </c>
-      <c r="H23" t="s">
-        <v>211</v>
-      </c>
-      <c r="I23" t="s">
-        <v>212</v>
-      </c>
-      <c r="J23" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>195</v>
-      </c>
-      <c r="B24" t="s">
-        <v>214</v>
-      </c>
       <c r="C24" t="s">
-        <v>215</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="E24" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="F24" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="G24" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="H24" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="I24" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="J24" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" t="s">
+        <v>175</v>
+      </c>
+      <c r="E25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G25" t="s">
+        <v>178</v>
+      </c>
+      <c r="H25" t="s">
+        <v>179</v>
+      </c>
+      <c r="I25" t="s">
+        <v>180</v>
+      </c>
+      <c r="J25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>181</v>
+      </c>
+      <c r="B26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" t="s">
+        <v>183</v>
+      </c>
+      <c r="E26" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" t="s">
+        <v>184</v>
+      </c>
+      <c r="G26" t="s">
+        <v>185</v>
+      </c>
+      <c r="H26" t="s">
+        <v>186</v>
+      </c>
+      <c r="I26" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" t="s">
+        <v>189</v>
+      </c>
+      <c r="E27" t="s">
+        <v>190</v>
+      </c>
+      <c r="F27" t="s">
+        <v>191</v>
+      </c>
+      <c r="G27" t="s">
+        <v>192</v>
+      </c>
+      <c r="H27" t="s">
+        <v>193</v>
+      </c>
+      <c r="I27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
         <v>195</v>
       </c>
-      <c r="B25" t="s">
-        <v>223</v>
-      </c>
-      <c r="C25" t="s">
-        <v>224</v>
-      </c>
-      <c r="D25" t="s">
-        <v>225</v>
-      </c>
-      <c r="E25" t="s">
-        <v>226</v>
-      </c>
-      <c r="F25" t="s">
-        <v>227</v>
-      </c>
-      <c r="G25" t="s">
-        <v>228</v>
-      </c>
-      <c r="H25" t="s">
-        <v>229</v>
-      </c>
-      <c r="I25" t="s">
-        <v>230</v>
-      </c>
-      <c r="J25" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>232</v>
-      </c>
-      <c r="B26" t="s">
-        <v>233</v>
-      </c>
-      <c r="C26" t="s">
-        <v>234</v>
-      </c>
-      <c r="D26" t="s">
-        <v>235</v>
-      </c>
-      <c r="E26" t="s">
-        <v>236</v>
-      </c>
-      <c r="F26" t="s">
-        <v>237</v>
-      </c>
-      <c r="G26" t="s">
-        <v>238</v>
-      </c>
-      <c r="H26" t="s">
-        <v>239</v>
-      </c>
-      <c r="I26" t="s">
-        <v>240</v>
-      </c>
-      <c r="J26" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>232</v>
-      </c>
-      <c r="B27" t="s">
-        <v>242</v>
-      </c>
-      <c r="C27" t="s">
-        <v>243</v>
-      </c>
-      <c r="D27" t="s">
-        <v>244</v>
-      </c>
-      <c r="E27" t="s">
-        <v>245</v>
-      </c>
-      <c r="F27" t="s">
-        <v>246</v>
-      </c>
-      <c r="G27" t="s">
-        <v>247</v>
-      </c>
-      <c r="H27" t="s">
-        <v>248</v>
-      </c>
-      <c r="I27" t="s">
-        <v>249</v>
-      </c>
-      <c r="J27" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>232</v>
-      </c>
-      <c r="B28" t="s">
-        <v>251</v>
-      </c>
-      <c r="C28" t="s">
-        <v>252</v>
-      </c>
-      <c r="D28" t="s">
-        <v>253</v>
-      </c>
       <c r="E28" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="F28" t="s">
-        <v>255</v>
+        <v>197</v>
       </c>
       <c r="G28" t="s">
-        <v>256</v>
+        <v>198</v>
       </c>
       <c r="H28" t="s">
-        <v>257</v>
+        <v>199</v>
       </c>
       <c r="I28" t="s">
-        <v>258</v>
+        <v>161</v>
       </c>
       <c r="J28" t="s">
-        <v>259</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>232</v>
+        <v>181</v>
       </c>
       <c r="B29" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="C29" t="s">
-        <v>261</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>262</v>
+        <v>201</v>
       </c>
       <c r="E29" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="F29" t="s">
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="G29" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="H29" t="s">
-        <v>266</v>
+        <v>204</v>
       </c>
       <c r="I29" t="s">
-        <v>267</v>
+        <v>53</v>
       </c>
       <c r="J29" t="s">
-        <v>268</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J29">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="A_803-2745(P1)"/>
+        <filter val="Asia1_761-2767(P1)"/>
+        <filter val="C_976-2742(P1)"/>
+        <filter val="O_637-2783(P1)"/>
+        <filter val="SAT1_901-2727(P1)"/>
+        <filter val="SAT2_721-2661(P1)"/>
+        <filter val="SAT3_976-2742(P1)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>